--- a/calc_both_w1.xlsx
+++ b/calc_both_w1.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hiro/Documents/github/2A0_python_basic_course/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BAC3AE1F-B3FE-C349-97BA-728C61A996A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6C3696-B728-6143-B4EB-15EC4AB8E984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="5580" windowWidth="27500" windowHeight="16440"/>
+    <workbookView xWindow="15700" yWindow="5160" windowWidth="27500" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="calc_setopr_f" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -33,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -957,7 +969,9 @@
       <c:valAx>
         <c:axId val="745500831"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1081,6 +1095,738 @@
     <a:p>
       <a:pPr>
         <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>Elapsed</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+              <a:t> Time in Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calc_setopr_f!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set operation </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>calc_setopr_f!$A$10:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>calc_setopr_f!$B$10:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.7999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2399999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0590000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-FFB2-F64E-A39E-B41E21320648}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calc_setopr_f!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>List comprehension</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>calc_setopr_f!$A$10:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>calc_setopr_f!$C$10:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.3699999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3699999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.195959999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-FFB2-F64E-A39E-B41E21320648}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="741835231"/>
+        <c:axId val="799038143"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="741835231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="799038143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="799038143"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="741835231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.60189244009972809"/>
+          <c:y val="0.73405717963415495"/>
+          <c:w val="0.37468426464581017"/>
+          <c:h val="0.21485725203889744"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" vert="horz"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="2400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Elapsed Time in Comparison</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="2400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calc_setopr_f!$B$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Set operation </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>calc_setopr_f!$A$10:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>calc_setopr_f!$B$10:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.7999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2399999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0590000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AB1A-3349-9999-A1CBCBEE13E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>calc_setopr_f!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>List comprehension</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>calc_setopr_f!$A$10:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>calc_setopr_f!$C$10:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.3699999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3699999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45290000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45.195959999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AB1A-3349-9999-A1CBCBEE13E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="741835231"/>
+        <c:axId val="799038143"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="741835231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="#,##0_);\(#,##0\)" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="799038143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="799038143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="741835231"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14320673033741504"/>
+          <c:y val="0.15423597912329925"/>
+          <c:w val="0.36377665339361104"/>
+          <c:h val="0.20464013837350789"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" vert="horz"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000">
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="ja-JP"/>
     </a:p>
@@ -1654,15 +2400,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1682,6 +2428,80 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3C2F7A0-AB25-5B96-105A-B9F1F1378D8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>673100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ABFE3A5-AA5C-5D4E-9085-E8B6AE0BD752}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1986,16 +2806,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -2003,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>10</v>
       </c>
@@ -2014,7 +2834,7 @@
         <v>1.529E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>100</v>
       </c>
@@ -2024,8 +2844,12 @@
       <c r="C3">
         <v>1.009E-2</v>
       </c>
+      <c r="D3">
+        <f>C3/C2</f>
+        <v>0.65990843688685419</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -2035,8 +2859,12 @@
       <c r="C4">
         <v>0.46331</v>
       </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D6" si="0">C4/C3</f>
+        <v>45.917740336967292</v>
+      </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>10000</v>
       </c>
@@ -2046,13 +2874,157 @@
       <c r="C5">
         <v>47.389890000000001</v>
       </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>102.28548919729771</v>
+      </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>100000</v>
       </c>
       <c r="B6">
         <v>2.4542899999999999</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="E7">
+        <v>10000</v>
+      </c>
+      <c r="F7">
+        <f>E7/3600</f>
+        <v>2.7777777777777777</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="F8">
+        <f>F7/5</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="str">
+        <f>B1</f>
+        <v xml:space="preserve">Set operation </v>
+      </c>
+      <c r="C9" t="str">
+        <f>C1</f>
+        <v>List comprehension</v>
+      </c>
+      <c r="E9">
+        <v>4500</v>
+      </c>
+      <c r="F9">
+        <f>E9/3600</f>
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>7.7999999999999999E-4</v>
+      </c>
+      <c r="C10">
+        <v>5.3699999999999998E-3</v>
+      </c>
+      <c r="D10">
+        <f>C10/B10</f>
+        <v>6.8846153846153841</v>
+      </c>
+      <c r="E10">
+        <f>LOG10(D10)</f>
+        <v>0.83787968300907523</v>
+      </c>
+      <c r="F10">
+        <f>F9/5</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>100</v>
+      </c>
+      <c r="B11">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="C11">
+        <v>8.0000000000000007E-5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:D14" si="1">C11/B11</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:E14" si="2">LOG10(D11)</f>
+        <v>0.1249387366083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>4.6999999999999999E-4</v>
+      </c>
+      <c r="C12">
+        <v>4.3699999999999998E-3</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>9.2978723404255312</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>0.96838357903470429</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>10000</v>
+      </c>
+      <c r="B13">
+        <v>3.2399999999999998E-3</v>
+      </c>
+      <c r="C13">
+        <v>0.45290000000000002</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>139.78395061728398</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>2.145457310476345</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>100000</v>
+      </c>
+      <c r="B14">
+        <v>2.0590000000000001E-2</v>
+      </c>
+      <c r="C14">
+        <v>45.195959999999999</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>2195.0441962117534</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>3.341443268987093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15">
+        <v>0.36492999999999998</v>
       </c>
     </row>
   </sheetData>
